--- a/example_results/beach_soccer_example_table_2_tl_all.xlsx
+++ b/example_results/beach_soccer_example_table_2_tl_all.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve"> (4, 13)</t>
   </si>
   <si>
-    <t xml:space="preserve"> [166.05,  619.93]</t>
+    <t xml:space="preserve"> [169.74,  619.93]</t>
   </si>
   <si>
     <t xml:space="preserve">Muscle injury</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve"> (7, 81.5)</t>
   </si>
   <si>
-    <t xml:space="preserve"> [302.58, 3214.02]</t>
+    <t xml:space="preserve"> [295.20, 3214.02]</t>
   </si>
   <si>
     <t xml:space="preserve">Joint sprain (ligament tear or acute instability)</t>
   </si>
   <si>
-    <t xml:space="preserve"> [291.51, 3214.02]</t>
+    <t xml:space="preserve"> [302.58, 3199.26]</t>
   </si>
   <si>
     <t xml:space="preserve">Superficial tissues/skin</t>
